--- a/2019.xlsx
+++ b/2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B01DA329-2788-40B4-881E-D8460A4C8F76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F34A1DB7-329E-446C-93C7-BD8756C9C1F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -344,15 +344,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -360,12 +360,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43466</v>
       </c>
       <c r="B2">
         <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>43467</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>43468</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F34A1DB7-329E-446C-93C7-BD8756C9C1F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B6496292-1A8D-4373-9420-A59AD31FADAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -384,6 +384,30 @@
         <v>56</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>43469</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>43470</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>43471</v>
+      </c>
+      <c r="B7">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
